--- a/static/download/2024/RP3_ERT_SU_2024_Jan_Dec.xlsx
+++ b/static/download/2024/RP3_ERT_SU_2024_Jan_Dec.xlsx
@@ -461,7 +461,7 @@
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="5" fontId="9" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -568,7 +568,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="9">
-        <v>45673.0</v>
+        <v>45758.0</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>7</v>
@@ -660,36 +660,28 @@
         <v>22</v>
       </c>
       <c r="B6" s="26">
-        <f>sum(B7:B35)</f>
-        <v>122490602.2</v>
+        <v>1.22379461E8</v>
       </c>
       <c r="C6" s="26">
-        <f t="shared" ref="C6:C35" si="1">B6/C$4</f>
-        <v>335590.691</v>
+        <v>335286.0</v>
       </c>
       <c r="D6" s="26">
-        <f>sum(D7:D35)</f>
-        <v>131637384.5</v>
+        <v>1.31545246E8</v>
       </c>
       <c r="E6" s="26">
-        <f t="shared" ref="E6:E35" si="2">D6/E$4</f>
-        <v>359664.9849</v>
+        <v>359413.0</v>
       </c>
       <c r="F6" s="27">
-        <f t="shared" ref="F6:F35" si="3">E6/C6-1</f>
-        <v>0.0717370731</v>
+        <v>0.072</v>
       </c>
       <c r="G6" s="26">
-        <f>sum(G7:G35)</f>
-        <v>129239062.4</v>
+        <v>1.29238723E8</v>
       </c>
       <c r="H6" s="26">
-        <f t="shared" ref="H6:H35" si="4">G6/H$4</f>
-        <v>353112.1923</v>
+        <v>353111.0</v>
       </c>
       <c r="I6" s="27">
-        <f t="shared" ref="I6:I35" si="5">D6/G6-1</f>
-        <v>0.01855725386</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -697,33 +689,28 @@
         <v>23</v>
       </c>
       <c r="B7" s="28">
-        <v>3847249.75</v>
+        <v>3847250.0</v>
       </c>
       <c r="C7" s="26">
-        <f t="shared" si="1"/>
-        <v>10540.41027</v>
+        <v>10540.0</v>
       </c>
       <c r="D7" s="28">
-        <v>4010091.68</v>
+        <v>4010092.0</v>
       </c>
       <c r="E7" s="26">
-        <f t="shared" si="2"/>
-        <v>10956.53464</v>
+        <v>10957.0</v>
       </c>
       <c r="F7" s="27">
-        <f t="shared" si="3"/>
-        <v>0.03947895386</v>
+        <v>0.039</v>
       </c>
       <c r="G7" s="28">
         <v>3504613.0</v>
       </c>
       <c r="H7" s="26">
-        <f t="shared" si="4"/>
-        <v>9575.445355</v>
+        <v>9575.0</v>
       </c>
       <c r="I7" s="27">
-        <f t="shared" si="5"/>
-        <v>0.1442323817</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -731,33 +718,28 @@
         <v>24</v>
       </c>
       <c r="B8" s="28">
-        <v>2446534.85</v>
+        <v>2446535.0</v>
       </c>
       <c r="C8" s="26">
-        <f t="shared" si="1"/>
-        <v>6702.835205</v>
+        <v>6703.0</v>
       </c>
       <c r="D8" s="28">
-        <v>2513649.37</v>
+        <v>2513649.0</v>
       </c>
       <c r="E8" s="26">
-        <f t="shared" si="2"/>
-        <v>6867.894454</v>
+        <v>6868.0</v>
       </c>
       <c r="F8" s="27">
-        <f t="shared" si="3"/>
-        <v>0.02462528811</v>
+        <v>0.025</v>
       </c>
       <c r="G8" s="28">
         <v>2560026.0</v>
       </c>
       <c r="H8" s="26">
-        <f t="shared" si="4"/>
-        <v>6994.606557</v>
+        <v>6995.0</v>
       </c>
       <c r="I8" s="27">
-        <f t="shared" si="5"/>
-        <v>-0.01811568711</v>
+        <v>-0.018</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -765,33 +747,28 @@
         <v>25</v>
       </c>
       <c r="B9" s="28">
-        <v>4670924.81</v>
+        <v>4670925.0</v>
       </c>
       <c r="C9" s="26">
-        <f t="shared" si="1"/>
-        <v>12797.05427</v>
+        <v>12797.0</v>
       </c>
       <c r="D9" s="28">
-        <v>5014994.24</v>
+        <v>5014994.0</v>
       </c>
       <c r="E9" s="26">
-        <f t="shared" si="2"/>
-        <v>13702.17005</v>
+        <v>13702.0</v>
       </c>
       <c r="F9" s="27">
-        <f t="shared" si="3"/>
-        <v>0.07072844745</v>
+        <v>0.071</v>
       </c>
       <c r="G9" s="28">
         <v>4126500.0</v>
       </c>
       <c r="H9" s="26">
-        <f t="shared" si="4"/>
-        <v>11274.59016</v>
+        <v>11275.0</v>
       </c>
       <c r="I9" s="27">
-        <f t="shared" si="5"/>
-        <v>0.2153142469</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -799,33 +776,28 @@
         <v>26</v>
       </c>
       <c r="B10" s="28">
-        <v>2562912.72</v>
+        <v>2562913.0</v>
       </c>
       <c r="C10" s="26">
-        <f t="shared" si="1"/>
-        <v>7021.678685</v>
+        <v>7022.0</v>
       </c>
       <c r="D10" s="28">
-        <v>3045644.55</v>
+        <v>3045645.0</v>
       </c>
       <c r="E10" s="26">
-        <f t="shared" si="2"/>
-        <v>8321.433197</v>
+        <v>8321.0</v>
       </c>
       <c r="F10" s="27">
-        <f t="shared" si="3"/>
-        <v>0.1851059512</v>
+        <v>0.185</v>
       </c>
       <c r="G10" s="28">
-        <v>2251000.0</v>
+        <v>2251180.0</v>
       </c>
       <c r="H10" s="26">
-        <f t="shared" si="4"/>
-        <v>6150.273224</v>
+        <v>6151.0</v>
       </c>
       <c r="I10" s="27">
-        <f t="shared" si="5"/>
-        <v>0.3530184585</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -833,33 +805,28 @@
         <v>27</v>
       </c>
       <c r="B11" s="28">
-        <v>2066475.7</v>
+        <v>2066476.0</v>
       </c>
       <c r="C11" s="26">
-        <f t="shared" si="1"/>
-        <v>5661.57726</v>
+        <v>5662.0</v>
       </c>
       <c r="D11" s="28">
-        <v>1836340.42</v>
+        <v>1836340.0</v>
       </c>
       <c r="E11" s="26">
-        <f t="shared" si="2"/>
-        <v>5017.323552</v>
+        <v>5017.0</v>
       </c>
       <c r="F11" s="27">
-        <f t="shared" si="3"/>
-        <v>-0.1137940328</v>
+        <v>-0.114</v>
       </c>
       <c r="G11" s="28">
         <v>2235000.0</v>
       </c>
       <c r="H11" s="26">
-        <f t="shared" si="4"/>
-        <v>6106.557377</v>
+        <v>6107.0</v>
       </c>
       <c r="I11" s="27">
-        <f t="shared" si="5"/>
-        <v>-0.1783711767</v>
+        <v>-0.178</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -867,33 +834,28 @@
         <v>28</v>
       </c>
       <c r="B12" s="28">
-        <v>2004226.43</v>
+        <v>2004226.0</v>
       </c>
       <c r="C12" s="26">
-        <f t="shared" si="1"/>
-        <v>5491.031315</v>
+        <v>5491.0</v>
       </c>
       <c r="D12" s="28">
-        <v>2359666.61</v>
+        <v>2359667.0</v>
       </c>
       <c r="E12" s="26">
-        <f t="shared" si="2"/>
-        <v>6447.17653</v>
+        <v>6447.0</v>
       </c>
       <c r="F12" s="27">
-        <f t="shared" si="3"/>
-        <v>0.1741285307</v>
+        <v>0.174</v>
       </c>
       <c r="G12" s="28">
         <v>2514308.0</v>
       </c>
       <c r="H12" s="26">
-        <f t="shared" si="4"/>
-        <v>6869.693989</v>
+        <v>6870.0</v>
       </c>
       <c r="I12" s="27">
-        <f t="shared" si="5"/>
-        <v>-0.06150455314</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -901,33 +863,28 @@
         <v>29</v>
       </c>
       <c r="B13" s="28">
-        <v>1458514.98</v>
+        <v>1458515.0</v>
       </c>
       <c r="C13" s="26">
-        <f t="shared" si="1"/>
-        <v>3995.931452</v>
+        <v>3996.0</v>
       </c>
       <c r="D13" s="28">
-        <v>1570565.63</v>
+        <v>1570566.0</v>
       </c>
       <c r="E13" s="26">
-        <f t="shared" si="2"/>
-        <v>4291.162923</v>
+        <v>4291.0</v>
       </c>
       <c r="F13" s="27">
-        <f t="shared" si="3"/>
-        <v>0.07388301701</v>
+        <v>0.074</v>
       </c>
       <c r="G13" s="28">
         <v>1784164.0</v>
       </c>
       <c r="H13" s="26">
-        <f t="shared" si="4"/>
-        <v>4874.765027</v>
+        <v>4875.0</v>
       </c>
       <c r="I13" s="27">
-        <f t="shared" si="5"/>
-        <v>-0.1197190225</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -935,33 +892,28 @@
         <v>30</v>
       </c>
       <c r="B14" s="28">
-        <v>446249.88</v>
+        <v>446250.0</v>
       </c>
       <c r="C14" s="26">
-        <f t="shared" si="1"/>
-        <v>1222.602411</v>
+        <v>1223.0</v>
       </c>
       <c r="D14" s="28">
-        <v>554965.11</v>
+        <v>554965.0</v>
       </c>
       <c r="E14" s="26">
-        <f t="shared" si="2"/>
-        <v>1516.298115</v>
+        <v>1516.0</v>
       </c>
       <c r="F14" s="27">
-        <f t="shared" si="3"/>
-        <v>0.2402217607</v>
+        <v>0.24</v>
       </c>
       <c r="G14" s="28">
         <v>912301.0</v>
       </c>
       <c r="H14" s="26">
-        <f t="shared" si="4"/>
-        <v>2492.625683</v>
+        <v>2493.0</v>
       </c>
       <c r="I14" s="27">
-        <f t="shared" si="5"/>
-        <v>-0.3916863952</v>
+        <v>-0.392</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -969,33 +921,28 @@
         <v>31</v>
       </c>
       <c r="B15" s="28">
-        <v>659113.69</v>
+        <v>659114.0</v>
       </c>
       <c r="C15" s="26">
-        <f t="shared" si="1"/>
-        <v>1805.790932</v>
+        <v>1806.0</v>
       </c>
       <c r="D15" s="28">
-        <v>748967.74</v>
+        <v>748968.0</v>
       </c>
       <c r="E15" s="26">
-        <f t="shared" si="2"/>
-        <v>2046.359945</v>
+        <v>2046.0</v>
       </c>
       <c r="F15" s="27">
-        <f t="shared" si="3"/>
-        <v>0.1332208561</v>
+        <v>0.133</v>
       </c>
       <c r="G15" s="28">
-        <v>1167000.0</v>
+        <v>1166739.0</v>
       </c>
       <c r="H15" s="26">
-        <f t="shared" si="4"/>
-        <v>3188.52459</v>
+        <v>3188.0</v>
       </c>
       <c r="I15" s="27">
-        <f t="shared" si="5"/>
-        <v>-0.3582110197</v>
+        <v>-0.358</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -1003,33 +950,28 @@
         <v>32</v>
       </c>
       <c r="B16" s="28">
-        <v>2.108829187E7</v>
+        <v>2.1088292E7</v>
       </c>
       <c r="C16" s="26">
-        <f t="shared" si="1"/>
-        <v>57776.14211</v>
+        <v>57776.0</v>
       </c>
       <c r="D16" s="28">
-        <v>2.273469277E7</v>
+        <v>2.2734693E7</v>
       </c>
       <c r="E16" s="26">
-        <f t="shared" si="2"/>
-        <v>62116.64691</v>
+        <v>62117.0</v>
       </c>
       <c r="F16" s="27">
-        <f t="shared" si="3"/>
-        <v>0.07512624839</v>
+        <v>0.075</v>
       </c>
       <c r="G16" s="28">
         <v>2.2464259E7</v>
       </c>
       <c r="H16" s="26">
-        <f t="shared" si="4"/>
-        <v>61377.75683</v>
+        <v>61378.0</v>
       </c>
       <c r="I16" s="27">
-        <f t="shared" si="5"/>
-        <v>0.01203840153</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -1037,33 +979,28 @@
         <v>33</v>
       </c>
       <c r="B17" s="28">
-        <v>1.37303367E7</v>
+        <v>1.3619197E7</v>
       </c>
       <c r="C17" s="26">
-        <f t="shared" si="1"/>
-        <v>37617.36082</v>
+        <v>37313.0</v>
       </c>
       <c r="D17" s="28">
-        <v>1.441624286E7</v>
+        <v>1.4324103E7</v>
       </c>
       <c r="E17" s="26">
-        <f t="shared" si="2"/>
-        <v>39388.64169</v>
+        <v>39137.0</v>
       </c>
       <c r="F17" s="27">
-        <f t="shared" si="3"/>
-        <v>0.04708679273</v>
+        <v>0.049</v>
       </c>
       <c r="G17" s="28">
         <v>1.58575E7</v>
       </c>
       <c r="H17" s="26">
-        <f t="shared" si="4"/>
-        <v>43326.50273</v>
+        <v>43327.0</v>
       </c>
       <c r="I17" s="27">
-        <f t="shared" si="5"/>
-        <v>-0.09088804288</v>
+        <v>-0.097</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -1071,33 +1008,28 @@
         <v>34</v>
       </c>
       <c r="B18" s="28">
-        <v>7310661.45</v>
+        <v>7310661.0</v>
       </c>
       <c r="C18" s="26">
-        <f t="shared" si="1"/>
-        <v>20029.20945</v>
+        <v>20029.0</v>
       </c>
       <c r="D18" s="28">
-        <v>7698455.22</v>
+        <v>7698455.0</v>
       </c>
       <c r="E18" s="26">
-        <f t="shared" si="2"/>
-        <v>21034.03066</v>
+        <v>21034.0</v>
       </c>
       <c r="F18" s="27">
-        <f t="shared" si="3"/>
-        <v>0.0501677915</v>
+        <v>0.05</v>
       </c>
       <c r="G18" s="28">
         <v>6781000.0</v>
       </c>
       <c r="H18" s="26">
-        <f t="shared" si="4"/>
-        <v>18527.3224</v>
+        <v>18527.0</v>
       </c>
       <c r="I18" s="27">
-        <f t="shared" si="5"/>
-        <v>0.1352979236</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -1105,33 +1037,28 @@
         <v>35</v>
       </c>
       <c r="B19" s="28">
-        <v>3725594.36</v>
+        <v>3725594.0</v>
       </c>
       <c r="C19" s="26">
-        <f t="shared" si="1"/>
-        <v>10207.10784</v>
+        <v>10207.0</v>
       </c>
       <c r="D19" s="28">
-        <v>3891744.02</v>
+        <v>3891744.0</v>
       </c>
       <c r="E19" s="26">
-        <f t="shared" si="2"/>
-        <v>10633.18038</v>
+        <v>10633.0</v>
       </c>
       <c r="F19" s="27">
-        <f t="shared" si="3"/>
-        <v>0.04174273004</v>
+        <v>0.042</v>
       </c>
       <c r="G19" s="28">
         <v>3181615.0</v>
       </c>
       <c r="H19" s="26">
-        <f t="shared" si="4"/>
-        <v>8692.937158</v>
+        <v>8693.0</v>
       </c>
       <c r="I19" s="27">
-        <f t="shared" si="5"/>
-        <v>0.2231976591</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -1139,33 +1066,28 @@
         <v>36</v>
       </c>
       <c r="B20" s="28">
-        <v>4811843.18</v>
+        <v>4811843.0</v>
       </c>
       <c r="C20" s="26">
-        <f t="shared" si="1"/>
-        <v>13183.132</v>
+        <v>13183.0</v>
       </c>
       <c r="D20" s="28">
-        <v>4988412.39</v>
+        <v>4988412.0</v>
       </c>
       <c r="E20" s="26">
-        <f t="shared" si="2"/>
-        <v>13629.54205</v>
+        <v>13630.0</v>
       </c>
       <c r="F20" s="27">
-        <f t="shared" si="3"/>
-        <v>0.03386221493</v>
+        <v>0.034</v>
       </c>
       <c r="G20" s="28">
-        <v>4893147.0</v>
+        <v>4893000.0</v>
       </c>
       <c r="H20" s="26">
-        <f t="shared" si="4"/>
-        <v>13369.2541</v>
+        <v>13369.0</v>
       </c>
       <c r="I20" s="27">
-        <f t="shared" si="5"/>
-        <v>0.01946914532</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -1173,33 +1095,28 @@
         <v>37</v>
       </c>
       <c r="B21" s="28">
-        <v>1.061835362E7</v>
+        <v>1.0618354E7</v>
       </c>
       <c r="C21" s="26">
-        <f t="shared" si="1"/>
-        <v>29091.37978</v>
+        <v>29091.0</v>
       </c>
       <c r="D21" s="28">
-        <v>1.173261071E7</v>
+        <v>1.1732611E7</v>
       </c>
       <c r="E21" s="26">
-        <f t="shared" si="2"/>
-        <v>32056.31342</v>
+        <v>32056.0</v>
       </c>
       <c r="F21" s="27">
-        <f t="shared" si="3"/>
-        <v>0.1019179447</v>
+        <v>0.102</v>
       </c>
       <c r="G21" s="28">
         <v>1.1278E7</v>
       </c>
       <c r="H21" s="26">
-        <f t="shared" si="4"/>
-        <v>30814.20765</v>
+        <v>30814.0</v>
       </c>
       <c r="I21" s="27">
-        <f t="shared" si="5"/>
-        <v>0.04030951498</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -1207,33 +1124,28 @@
         <v>38</v>
       </c>
       <c r="B22" s="28">
-        <v>465896.55</v>
+        <v>465897.0</v>
       </c>
       <c r="C22" s="26">
-        <f t="shared" si="1"/>
-        <v>1276.428904</v>
+        <v>1276.0</v>
       </c>
       <c r="D22" s="28">
-        <v>576910.21</v>
+        <v>576910.0</v>
       </c>
       <c r="E22" s="26">
-        <f t="shared" si="2"/>
-        <v>1576.257404</v>
+        <v>1576.0</v>
       </c>
       <c r="F22" s="27">
-        <f t="shared" si="3"/>
-        <v>0.2348963576</v>
+        <v>0.235</v>
       </c>
       <c r="G22" s="28">
         <v>570000.0</v>
       </c>
       <c r="H22" s="26">
-        <f t="shared" si="4"/>
-        <v>1557.377049</v>
+        <v>1557.0</v>
       </c>
       <c r="I22" s="27">
-        <f t="shared" si="5"/>
-        <v>0.01212317544</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -1241,33 +1153,28 @@
         <v>39</v>
       </c>
       <c r="B23" s="28">
-        <v>404023.02</v>
+        <v>404023.0</v>
       </c>
       <c r="C23" s="26">
-        <f t="shared" si="1"/>
-        <v>1106.912384</v>
+        <v>1107.0</v>
       </c>
       <c r="D23" s="28">
-        <v>456814.75</v>
+        <v>456815.0</v>
       </c>
       <c r="E23" s="26">
-        <f t="shared" si="2"/>
-        <v>1248.127732</v>
+        <v>1248.0</v>
       </c>
       <c r="F23" s="27">
-        <f t="shared" si="3"/>
-        <v>0.1275759046</v>
+        <v>0.128</v>
       </c>
       <c r="G23" s="28">
-        <v>434911.51</v>
+        <v>435000.0</v>
       </c>
       <c r="H23" s="26">
-        <f t="shared" si="4"/>
-        <v>1188.282814</v>
+        <v>1189.0</v>
       </c>
       <c r="I23" s="27">
-        <f t="shared" si="5"/>
-        <v>0.05036252087</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -1275,33 +1182,28 @@
         <v>40</v>
       </c>
       <c r="B24" s="28">
-        <v>968128.07</v>
+        <v>968128.0</v>
       </c>
       <c r="C24" s="26">
-        <f t="shared" si="1"/>
-        <v>2652.405671</v>
+        <v>2652.0</v>
       </c>
       <c r="D24" s="28">
-        <v>1107705.91</v>
+        <v>1107706.0</v>
       </c>
       <c r="E24" s="26">
-        <f t="shared" si="2"/>
-        <v>3026.51888</v>
+        <v>3027.0</v>
       </c>
       <c r="F24" s="27">
-        <f t="shared" si="3"/>
-        <v>0.1410467534</v>
+        <v>0.141</v>
       </c>
       <c r="G24" s="28">
         <v>1044000.0</v>
       </c>
       <c r="H24" s="26">
-        <f t="shared" si="4"/>
-        <v>2852.459016</v>
+        <v>2852.0</v>
       </c>
       <c r="I24" s="27">
-        <f t="shared" si="5"/>
-        <v>0.06102098659</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -1309,33 +1211,28 @@
         <v>41</v>
       </c>
       <c r="B25" s="28">
-        <v>2833576.37</v>
+        <v>2833576.0</v>
       </c>
       <c r="C25" s="26">
-        <f t="shared" si="1"/>
-        <v>7763.222932</v>
+        <v>7763.0</v>
       </c>
       <c r="D25" s="28">
-        <v>3013419.74</v>
+        <v>3013420.0</v>
       </c>
       <c r="E25" s="26">
-        <f t="shared" si="2"/>
-        <v>8233.387268</v>
+        <v>8233.0</v>
       </c>
       <c r="F25" s="27">
-        <f t="shared" si="3"/>
-        <v>0.06056303425</v>
+        <v>0.061</v>
       </c>
       <c r="G25" s="28">
         <v>3294000.0</v>
       </c>
       <c r="H25" s="26">
-        <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>9000.0</v>
       </c>
       <c r="I25" s="27">
-        <f t="shared" si="5"/>
-        <v>-0.08517919247</v>
+        <v>-0.085</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -1343,33 +1240,28 @@
         <v>42</v>
       </c>
       <c r="B26" s="28">
-        <v>2328670.41</v>
+        <v>2328670.0</v>
       </c>
       <c r="C26" s="26">
-        <f t="shared" si="1"/>
-        <v>6379.918932</v>
+        <v>6380.0</v>
       </c>
       <c r="D26" s="28">
-        <v>2476670.95</v>
+        <v>2476671.0</v>
       </c>
       <c r="E26" s="26">
-        <f t="shared" si="2"/>
-        <v>6766.860519</v>
+        <v>6767.0</v>
       </c>
       <c r="F26" s="27">
-        <f t="shared" si="3"/>
-        <v>0.06064992232</v>
+        <v>0.061</v>
       </c>
       <c r="G26" s="28">
-        <v>2472291.17</v>
+        <v>2472291.0</v>
       </c>
       <c r="H26" s="26">
-        <f t="shared" si="4"/>
-        <v>6754.893907</v>
+        <v>6755.0</v>
       </c>
       <c r="I26" s="27">
-        <f t="shared" si="5"/>
-        <v>0.001771546998</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -1377,33 +1269,28 @@
         <v>43</v>
       </c>
       <c r="B27" s="28">
-        <v>3536911.42</v>
+        <v>3536911.0</v>
       </c>
       <c r="C27" s="26">
-        <f t="shared" si="1"/>
-        <v>9690.168274</v>
+        <v>9690.0</v>
       </c>
       <c r="D27" s="28">
-        <v>3824125.64</v>
+        <v>3824126.0</v>
       </c>
       <c r="E27" s="26">
-        <f t="shared" si="2"/>
-        <v>10448.43071</v>
+        <v>10448.0</v>
       </c>
       <c r="F27" s="27">
-        <f t="shared" si="3"/>
-        <v>0.07825069854</v>
+        <v>0.078</v>
       </c>
       <c r="G27" s="28">
         <v>5129508.0</v>
       </c>
       <c r="H27" s="26">
-        <f t="shared" si="4"/>
-        <v>14015.04918</v>
+        <v>14015.0</v>
       </c>
       <c r="I27" s="27">
-        <f t="shared" si="5"/>
-        <v>-0.2544849058</v>
+        <v>-0.254</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -1411,33 +1298,28 @@
         <v>44</v>
       </c>
       <c r="B28" s="28">
-        <v>4123128.4</v>
+        <v>4123128.0</v>
       </c>
       <c r="C28" s="26">
-        <f t="shared" si="1"/>
-        <v>11296.24219</v>
+        <v>11296.0</v>
       </c>
       <c r="D28" s="28">
-        <v>4509768.87</v>
+        <v>4509769.0</v>
       </c>
       <c r="E28" s="26">
-        <f t="shared" si="2"/>
-        <v>12321.77287</v>
+        <v>12322.0</v>
       </c>
       <c r="F28" s="27">
-        <f t="shared" si="3"/>
-        <v>0.09078511771</v>
+        <v>0.091</v>
       </c>
       <c r="G28" s="28">
         <v>3884376.0</v>
       </c>
       <c r="H28" s="26">
-        <f t="shared" si="4"/>
-        <v>10613.04918</v>
+        <v>10613.0</v>
       </c>
       <c r="I28" s="27">
-        <f t="shared" si="5"/>
-        <v>0.1610021455</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -1445,33 +1327,28 @@
         <v>45</v>
       </c>
       <c r="B29" s="28">
-        <v>5920196.34</v>
+        <v>5920196.0</v>
       </c>
       <c r="C29" s="26">
-        <f t="shared" si="1"/>
-        <v>16219.716</v>
+        <v>16220.0</v>
       </c>
       <c r="D29" s="28">
-        <v>6368971.67</v>
+        <v>6368972.0</v>
       </c>
       <c r="E29" s="26">
-        <f t="shared" si="2"/>
-        <v>17401.56194</v>
+        <v>17402.0</v>
       </c>
       <c r="F29" s="27">
-        <f t="shared" si="3"/>
-        <v>0.07286477395</v>
+        <v>0.073</v>
       </c>
       <c r="G29" s="28">
         <v>5825000.0</v>
       </c>
       <c r="H29" s="26">
-        <f t="shared" si="4"/>
-        <v>15915.30055</v>
+        <v>15915.0</v>
       </c>
       <c r="I29" s="27">
-        <f t="shared" si="5"/>
-        <v>0.09338569442</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
@@ -1479,33 +1356,28 @@
         <v>46</v>
       </c>
       <c r="B30" s="28">
-        <v>1083018.31</v>
+        <v>1083018.0</v>
       </c>
       <c r="C30" s="26">
-        <f t="shared" si="1"/>
-        <v>2967.173452</v>
+        <v>2967.0</v>
       </c>
       <c r="D30" s="28">
-        <v>1235018.7</v>
+        <v>1235019.0</v>
       </c>
       <c r="E30" s="26">
-        <f t="shared" si="2"/>
-        <v>3374.368033</v>
+        <v>3374.0</v>
       </c>
       <c r="F30" s="27">
-        <f t="shared" si="3"/>
-        <v>0.1372331572</v>
+        <v>0.137</v>
       </c>
       <c r="G30" s="28">
-        <v>1094249.0</v>
+        <v>1094000.0</v>
       </c>
       <c r="H30" s="26">
-        <f t="shared" si="4"/>
-        <v>2989.751366</v>
+        <v>2989.0</v>
       </c>
       <c r="I30" s="27">
-        <f t="shared" si="5"/>
-        <v>0.1286450342</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
@@ -1513,33 +1385,28 @@
         <v>47</v>
       </c>
       <c r="B31" s="28">
-        <v>677206.78</v>
+        <v>677207.0</v>
       </c>
       <c r="C31" s="26">
-        <f t="shared" si="1"/>
-        <v>1855.361041</v>
+        <v>1855.0</v>
       </c>
       <c r="D31" s="28">
-        <v>715500.15</v>
+        <v>715500.0</v>
       </c>
       <c r="E31" s="26">
-        <f t="shared" si="2"/>
-        <v>1954.918443</v>
+        <v>1955.0</v>
       </c>
       <c r="F31" s="27">
-        <f t="shared" si="3"/>
-        <v>0.05365931445</v>
+        <v>0.054</v>
       </c>
       <c r="G31" s="28">
-        <v>605804.59</v>
+        <v>605805.0</v>
       </c>
       <c r="H31" s="26">
-        <f t="shared" si="4"/>
-        <v>1655.203798</v>
+        <v>1655.0</v>
       </c>
       <c r="I31" s="27">
-        <f t="shared" si="5"/>
-        <v>0.1810741645</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
@@ -1547,33 +1414,28 @@
         <v>48</v>
       </c>
       <c r="B32" s="28">
-        <v>1990427.92</v>
+        <v>1990428.0</v>
       </c>
       <c r="C32" s="26">
-        <f t="shared" si="1"/>
-        <v>5453.227178</v>
+        <v>5453.0</v>
       </c>
       <c r="D32" s="28">
-        <v>2130023.46</v>
+        <v>2130023.0</v>
       </c>
       <c r="E32" s="26">
-        <f t="shared" si="2"/>
-        <v>5819.73623</v>
+        <v>5820.0</v>
       </c>
       <c r="F32" s="27">
-        <f t="shared" si="3"/>
-        <v>0.06720956957</v>
+        <v>0.067</v>
       </c>
       <c r="G32" s="28">
         <v>1775489.0</v>
       </c>
       <c r="H32" s="26">
-        <f t="shared" si="4"/>
-        <v>4851.062842</v>
+        <v>4851.0</v>
       </c>
       <c r="I32" s="27">
-        <f t="shared" si="5"/>
-        <v>0.1996827128</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
@@ -1581,33 +1443,28 @@
         <v>49</v>
       </c>
       <c r="B33" s="28">
-        <v>1.245183088E7</v>
+        <v>1.2451831E7</v>
       </c>
       <c r="C33" s="26">
-        <f t="shared" si="1"/>
-        <v>34114.60515</v>
+        <v>34115.0</v>
       </c>
       <c r="D33" s="28">
-        <v>1.339735227E7</v>
+        <v>1.3397352E7</v>
       </c>
       <c r="E33" s="26">
-        <f t="shared" si="2"/>
-        <v>36604.78762</v>
+        <v>36605.0</v>
       </c>
       <c r="F33" s="27">
-        <f t="shared" si="3"/>
-        <v>0.0729946151</v>
+        <v>0.073</v>
       </c>
       <c r="G33" s="28">
         <v>1.2421049E7</v>
       </c>
       <c r="H33" s="26">
-        <f t="shared" si="4"/>
-        <v>33937.29235</v>
+        <v>33937.0</v>
       </c>
       <c r="I33" s="27">
-        <f t="shared" si="5"/>
-        <v>0.07860070997</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
@@ -1615,33 +1472,28 @@
         <v>50</v>
       </c>
       <c r="B34" s="28">
-        <v>2665647.42</v>
+        <v>2665647.0</v>
       </c>
       <c r="C34" s="26">
-        <f t="shared" si="1"/>
-        <v>7303.143616</v>
+        <v>7303.0</v>
       </c>
       <c r="D34" s="28">
-        <v>2874477.92</v>
+        <v>2874478.0</v>
       </c>
       <c r="E34" s="26">
-        <f t="shared" si="2"/>
-        <v>7853.764809</v>
+        <v>7854.0</v>
       </c>
       <c r="F34" s="27">
-        <f t="shared" si="3"/>
-        <v>0.07539509302</v>
+        <v>0.075</v>
       </c>
       <c r="G34" s="28">
         <v>3367000.0</v>
       </c>
       <c r="H34" s="26">
-        <f t="shared" si="4"/>
-        <v>9199.453552</v>
+        <v>9199.0</v>
       </c>
       <c r="I34" s="27">
-        <f t="shared" si="5"/>
-        <v>-0.146279204</v>
+        <v>-0.146</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -1649,33 +1501,28 @@
         <v>51</v>
       </c>
       <c r="B35" s="28">
-        <v>1594656.34</v>
+        <v>1594656.0</v>
       </c>
       <c r="C35" s="26">
-        <f t="shared" si="1"/>
-        <v>4368.921479</v>
+        <v>4369.0</v>
       </c>
       <c r="D35" s="28">
-        <v>1833580.93</v>
+        <v>1833581.0</v>
       </c>
       <c r="E35" s="26">
-        <f t="shared" si="2"/>
-        <v>5009.783962</v>
+        <v>5010.0</v>
       </c>
       <c r="F35" s="27">
-        <f t="shared" si="3"/>
-        <v>0.146686656</v>
+        <v>0.147</v>
       </c>
       <c r="G35" s="28">
-        <v>1810951.13</v>
+        <v>1811000.0</v>
       </c>
       <c r="H35" s="26">
-        <f t="shared" si="4"/>
-        <v>4947.953907</v>
+        <v>4948.0</v>
       </c>
       <c r="I35" s="27">
-        <f t="shared" si="5"/>
-        <v>0.01249608541</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
